--- a/classfiers/greedy/knn/smote/greedy-knn-smote-results.xlsx
+++ b/classfiers/greedy/knn/smote/greedy-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9914163090128756</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9910207939508506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978260869565218</v>
+        <v>0.9891774891774892</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9685534591194969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9710869565217392</v>
+        <v>0.9718614718614719</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.9663865546218487</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>0.9829059829059829</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9314744801512288</v>
+        <v>0.987012987012987</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8243727598566308</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9037328094302554</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9195652173913044</v>
+        <v>0.991304347826087</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9078639699607443</v>
+        <v>0.9692388684972444</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9505335937339126</v>
+        <v>0.9843016143113736</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9621947069943289</v>
+        <v>0.987871259175607</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/knn/smote/greedy-knn-smote-results.xlsx
+++ b/classfiers/greedy/knn/smote/greedy-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9956896551724138</v>
+        <v>0.9928400954653939</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9998860788334473</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.9674418604651163</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9891774891774892</v>
+        <v>0.9856231487810435</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9390243902439024</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9685534591194969</v>
+        <v>0.9633027522935781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9718614718614719</v>
+        <v>0.9760765550239234</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9375</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E5" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9711323763955343</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.8132295719844358</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.8969957081545065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.991304347826087</v>
+        <v>0.8960303106613861</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9692388684972444</v>
+        <v>0.9275702325497504</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9980861244019138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9843016143113736</v>
+        <v>0.9604025133738094</v>
       </c>
       <c r="E7" t="n">
-        <v>0.987871259175607</v>
+        <v>0.9657496939390668</v>
       </c>
     </row>
   </sheetData>
